--- a/Schätzung + Zeiten.xlsx
+++ b/Schätzung + Zeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonp\Desktop\SlightlyObscureEntertainment\Strange Tales - Dark Forest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonp\Desktop\SlightlyObscureEntertainment\Weird Stories - Dark Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6732F-73A9-4625-88EA-6C5B652D9261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423AFAF3-3A7B-4B07-9BF2-7CF70C4F2403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Leon Palluch</author>
+  </authors>
+  <commentList>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{D6119CF8-8643-49B5-9FED-87E7AB8D2D9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>-1 Monat für UGP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leon Palluch</author>
@@ -66,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
   <si>
     <t>Schätzung in h</t>
   </si>
@@ -597,6 +621,12 @@
   </si>
   <si>
     <t>Checkpoints</t>
+  </si>
+  <si>
+    <t>14.08.25</t>
+  </si>
+  <si>
+    <t>Custom Font</t>
   </si>
 </sst>
 </file>
@@ -1050,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34919246-5A8F-4FC3-827A-650B040FD870}">
-  <dimension ref="A1:V173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34919246-5A8F-4FC3-827A-650B040FD870}">
+  <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,11 +1155,11 @@
       </c>
       <c r="K2">
         <f>SUM(I:I)</f>
-        <v>171.25</v>
+        <v>176.5</v>
       </c>
       <c r="M2">
         <f>SUM(P2:P246)</f>
-        <v>171.25</v>
+        <v>176.5</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>54</v>
@@ -1242,8 +1272,8 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <f>SUM(R2:R34) +T2</f>
-        <v>-38.75</v>
+        <f>SUM(R2:R35) +T2</f>
+        <v>-40.25</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>26</v>
@@ -1253,14 +1283,14 @@
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5:P6" si="1">SUMIFS(D:D, F:F, N5, E:E, O5)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q5" s="13">
         <v>10</v>
       </c>
       <c r="R5">
         <f>Q5-P5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1308,7 +1338,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(D:D, F:F, N7, E:E, O7)</f>
+        <f t="shared" ref="P7:P36" si="2">SUMIFS(D:D, F:F, N7, E:E, O7)</f>
         <v>4.5</v>
       </c>
       <c r="Q7">
@@ -1341,14 +1371,14 @@
         <v>68</v>
       </c>
       <c r="P8" s="15">
-        <f>SUMIFS(D:D, F:F, N8, E:E, O8)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
       </c>
       <c r="R8">
-        <f>Q8-P8</f>
+        <f t="shared" ref="R8:R13" si="3">Q8-P8</f>
         <v>-4.5</v>
       </c>
     </row>
@@ -1358,7 +1388,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="K9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>15</v>
@@ -1367,14 +1397,14 @@
         <v>70</v>
       </c>
       <c r="P9" s="15">
-        <f>SUMIFS(D:D, F:F, N9, E:E, O9)</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
       </c>
       <c r="R9">
-        <f>Q9-P9</f>
+        <f t="shared" si="3"/>
         <v>-8.75</v>
       </c>
     </row>
@@ -1401,14 +1431,14 @@
         <v>76</v>
       </c>
       <c r="P10" s="15">
-        <f>SUMIFS(D:D, F:F, N10, E:E, O10)</f>
+        <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
       </c>
       <c r="R10">
-        <f>Q10-P10</f>
+        <f t="shared" si="3"/>
         <v>-12.25</v>
       </c>
     </row>
@@ -1438,14 +1468,14 @@
         <v>82</v>
       </c>
       <c r="P11" s="15">
-        <f>SUMIFS(D:D, F:F, N11, E:E, O11)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
       </c>
       <c r="R11">
-        <f>Q11-P11</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -1455,7 +1485,7 @@
       </c>
       <c r="K12">
         <f>30 * 4 * K9</f>
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>100</v>
@@ -1464,14 +1494,14 @@
         <v>99</v>
       </c>
       <c r="P12" s="15">
-        <f>SUMIFS(D:D, F:F, N12, E:E, O12)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
       </c>
       <c r="R12">
-        <f>Q12-P12</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -1498,14 +1528,14 @@
         <v>87</v>
       </c>
       <c r="P13" s="15">
-        <f>SUMIFS(D:D, F:F, N13, E:E, O13)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
       </c>
       <c r="R13">
-        <f>Q13-P13</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
     </row>
@@ -1532,7 +1562,7 @@
         <v>64</v>
       </c>
       <c r="P14">
-        <f>SUMIFS(D:D, F:F, N14, E:E, O14)</f>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="Q14">
@@ -1562,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="P15" s="20">
-        <f>SUMIFS(D:D, F:F, N15, E:E, O15)</f>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="Q15" s="20">
@@ -1584,7 +1614,7 @@
         <v>36</v>
       </c>
       <c r="P16">
-        <f>SUMIFS(D:D, F:F, N16, E:E, O16)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="Q16">
@@ -1614,7 +1644,7 @@
         <v>126</v>
       </c>
       <c r="P17" s="15">
-        <f>SUMIFS(D:D, F:F, N17, E:E, O17)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Q17" s="15">
@@ -1648,7 +1678,7 @@
         <v>116</v>
       </c>
       <c r="P18" s="15">
-        <f>SUMIFS(D:D, F:F, N18, E:E, O18)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="Q18" s="15">
@@ -1673,7 +1703,7 @@
         <v>157</v>
       </c>
       <c r="P19" s="15">
-        <f>SUMIFS(D:D, F:F, N19, E:E, O19)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Q19" s="15">
@@ -1711,7 +1741,7 @@
         <v>164</v>
       </c>
       <c r="P20" s="15">
-        <f>SUMIFS(D:D, F:F, N20, E:E, O20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q20" s="15">
@@ -1745,7 +1775,7 @@
         <v>84</v>
       </c>
       <c r="P21" s="15">
-        <f>SUMIFS(D:D, F:F, N21, E:E, O21)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="Q21" s="15">
@@ -1760,18 +1790,22 @@
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="N22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22">
-        <f>SUMIFS(D:D, F:F, N22, E:E, O22)</f>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" ref="P22" si="4">SUMIFS(D:D, F:F, N22, E:E, O22)</f>
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>30</v>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>Q22-P22</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -1794,14 +1828,14 @@
         <v>9</v>
       </c>
       <c r="O23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P23">
         <f>SUMIFS(D:D, F:F, N23, E:E, O23)</f>
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -1822,22 +1856,18 @@
       <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <f>SUMIFS(D:D, F:F, N24, E:E, O24)</f>
+        <v>4.75</v>
+      </c>
+      <c r="Q24">
         <v>10</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="15">
-        <f>SUMIFS(D:D, F:F, N24, E:E, O24)</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f>Q24-P24</f>
-        <v>-0.75</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -1848,18 +1878,18 @@
         <v>10</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P25" s="15">
         <f>SUMIFS(D:D, F:F, N25, E:E, O25)</f>
-        <v>4.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q25" s="15">
         <v>0</v>
       </c>
       <c r="R25">
-        <f>Q25-P25</f>
-        <v>-4.25</v>
+        <f t="shared" ref="R25:R36" si="5">Q25-P25</f>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -1882,18 +1912,18 @@
         <v>10</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P26" s="15">
         <f>SUMIFS(D:D, F:F, N26, E:E, O26)</f>
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="Q26" s="15">
         <v>0</v>
       </c>
       <c r="R26">
-        <f>Q26-P26</f>
-        <v>-1.75</v>
+        <f t="shared" si="5"/>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -1916,18 +1946,18 @@
         <v>10</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P27" s="15">
         <f>SUMIFS(D:D, F:F, N27, E:E, O27)</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" s="15">
         <v>0</v>
       </c>
       <c r="R27">
-        <f>Q27-P27</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -1946,44 +1976,44 @@
       <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="20">
+      <c r="O28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="15">
         <f>SUMIFS(D:D, F:F, N28, E:E, O28)</f>
-        <v>23.25</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
       </c>
       <c r="R28">
-        <f>Q28-P28</f>
-        <v>-3.25</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P29" s="15">
+      <c r="O29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="20">
         <f>SUMIFS(D:D, F:F, N29, E:E, O29)</f>
-        <v>4.25</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0</v>
+        <v>23.25</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>20</v>
       </c>
       <c r="R29">
-        <f>Q29-P29</f>
-        <v>-4.25</v>
+        <f t="shared" si="5"/>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2006,18 +2036,18 @@
         <v>10</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P30" s="15">
         <f>SUMIFS(D:D, F:F, N30, E:E, O30)</f>
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Q30" s="15">
         <v>0</v>
       </c>
       <c r="R30">
-        <f>Q30-P30</f>
-        <v>-0.5</v>
+        <f t="shared" si="5"/>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2040,18 +2070,18 @@
         <v>10</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P31" s="15">
         <f>SUMIFS(D:D, F:F, N31, E:E, O31)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q31" s="15">
         <v>0</v>
       </c>
       <c r="R31">
-        <f>Q31-P31</f>
-        <v>-1.5</v>
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2059,10 +2089,10 @@
         <v>79</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P32" s="15">
         <f>SUMIFS(D:D, F:F, N32, E:E, O32)</f>
@@ -2072,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <f>Q32-P32</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -2092,22 +2122,22 @@
       <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="17">
+      <c r="N33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" s="15">
         <f>SUMIFS(D:D, F:F, N33, E:E, O33)</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q33" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" s="15">
         <v>0</v>
       </c>
       <c r="R33">
-        <f>Q33-P33</f>
-        <v>-0.75</v>
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2130,18 +2160,18 @@
         <v>109</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="P34" s="17">
         <f>SUMIFS(D:D, F:F, N34, E:E, O34)</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q34" s="17">
         <v>0</v>
       </c>
       <c r="R34">
-        <f>Q34-P34</f>
-        <v>-0.25</v>
+        <f t="shared" si="5"/>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2164,18 +2194,18 @@
         <v>109</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P35" s="17">
         <f>SUMIFS(D:D, F:F, N35, E:E, O35)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q35" s="17">
         <v>0</v>
       </c>
       <c r="R35">
-        <f>Q35-P35</f>
-        <v>-0.5</v>
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2184,18 +2214,22 @@
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="22">
+      <c r="N36" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="17">
         <f>SUMIFS(D:D, F:F, N36, E:E, O36)</f>
-        <v>12</v>
-      </c>
-      <c r="Q36">
-        <v>30</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -2214,6 +2248,19 @@
       <c r="F37" t="s">
         <v>109</v>
       </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="22">
+        <f>SUMIFS(D:D, F:F, N37, E:E, O37)</f>
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
@@ -2231,6 +2278,19 @@
       <c r="F38" t="s">
         <v>15</v>
       </c>
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="22">
+        <f>SUMIFS(D:D, F:F, N38, E:E, O38)</f>
+        <v>3.75</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
@@ -3998,8 +4058,8 @@
         <v>172</v>
       </c>
       <c r="I166">
-        <f>SUM(D167:D176)</f>
-        <v>8.5</v>
+        <f>SUM(D167:D181)</f>
+        <v>13.75</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4097,9 +4157,83 @@
         <v>26</v>
       </c>
     </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>178</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E177" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4130,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,7 +4353,7 @@
       </c>
       <c r="G3">
         <f>SUM(D2:D373)</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
@@ -4233,7 +4367,7 @@
       </c>
       <c r="O3">
         <f>G3+L11</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4281,10 +4415,7 @@
       <c r="C6" s="21">
         <v>20</v>
       </c>
-      <c r="D6" s="21">
-        <f>'Zeiten nach Tag'!P27</f>
-        <v>1</v>
-      </c>
+      <c r="D6" s="21"/>
       <c r="F6">
         <f>F3/6</f>
         <v>148.33333333333334</v>
@@ -4301,7 +4432,7 @@
       </c>
       <c r="O6">
         <f>O3/6</f>
-        <v>1.5833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4352,7 +4483,7 @@
       </c>
       <c r="O9">
         <f>O6/20</f>
-        <v>7.9166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4546,10 +4677,7 @@
       <c r="C31" s="13">
         <v>30</v>
       </c>
-      <c r="D31" s="13">
-        <f>'Zeiten nach Tag'!P15</f>
-        <v>8.5</v>
-      </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">

--- a/Schätzung + Zeiten.xlsx
+++ b/Schätzung + Zeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonp\Desktop\SlightlyObscureEntertainment\Weird Stories - Dark Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423AFAF3-3A7B-4B07-9BF2-7CF70C4F2403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386C640-85CB-42C4-B09C-83FB13B4BB3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="180">
   <si>
     <t>Schätzung in h</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Custom Font</t>
+  </si>
+  <si>
+    <t>15.08.25</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34919246-5A8F-4FC3-827A-650B040FD870}">
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,11 +1158,11 @@
       </c>
       <c r="K2">
         <f>SUM(I:I)</f>
-        <v>176.5</v>
+        <v>176.75</v>
       </c>
       <c r="M2">
         <f>SUM(P2:P246)</f>
-        <v>176.5</v>
+        <v>176.75</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>54</v>
@@ -1338,7 +1341,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P36" si="2">SUMIFS(D:D, F:F, N7, E:E, O7)</f>
+        <f t="shared" ref="P7:P21" si="2">SUMIFS(D:D, F:F, N7, E:E, O7)</f>
         <v>4.5</v>
       </c>
       <c r="Q7">
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <f>Q17-P17</f>
+        <f t="shared" ref="R17:R22" si="4">Q17-P17</f>
         <v>-1.5</v>
       </c>
     </row>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <f>Q18-P18</f>
+        <f t="shared" si="4"/>
         <v>-0.75</v>
       </c>
     </row>
@@ -1710,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <f>Q19-P19</f>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
     </row>
@@ -1748,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <f>Q20-P20</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -1782,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <f>Q21-P21</f>
+        <f t="shared" si="4"/>
         <v>-0.25</v>
       </c>
     </row>
@@ -1797,14 +1800,14 @@
         <v>178</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" ref="P22" si="4">SUMIFS(D:D, F:F, N22, E:E, O22)</f>
+        <f t="shared" ref="P22" si="5">SUMIFS(D:D, F:F, N22, E:E, O22)</f>
         <v>1</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
       </c>
       <c r="R22">
-        <f>Q22-P22</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -1831,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="P23">
-        <f>SUMIFS(D:D, F:F, N23, E:E, O23)</f>
+        <f t="shared" ref="P23:P38" si="6">SUMIFS(D:D, F:F, N23, E:E, O23)</f>
         <v>1</v>
       </c>
       <c r="Q23">
@@ -1863,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="P24">
-        <f>SUMIFS(D:D, F:F, N24, E:E, O24)</f>
+        <f t="shared" si="6"/>
         <v>4.75</v>
       </c>
       <c r="Q24">
@@ -1881,14 +1884,14 @@
         <v>119</v>
       </c>
       <c r="P25" s="15">
-        <f>SUMIFS(D:D, F:F, N25, E:E, O25)</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="Q25" s="15">
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:R36" si="5">Q25-P25</f>
+        <f t="shared" ref="R25:R36" si="7">Q25-P25</f>
         <v>-0.75</v>
       </c>
     </row>
@@ -1915,14 +1918,14 @@
         <v>121</v>
       </c>
       <c r="P26" s="15">
-        <f>SUMIFS(D:D, F:F, N26, E:E, O26)</f>
+        <f t="shared" si="6"/>
         <v>4.25</v>
       </c>
       <c r="Q26" s="15">
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.25</v>
       </c>
     </row>
@@ -1949,14 +1952,14 @@
         <v>128</v>
       </c>
       <c r="P27" s="15">
-        <f>SUMIFS(D:D, F:F, N27, E:E, O27)</f>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="Q27" s="15">
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.75</v>
       </c>
     </row>
@@ -1983,14 +1986,14 @@
         <v>130</v>
       </c>
       <c r="P28" s="15">
-        <f>SUMIFS(D:D, F:F, N28, E:E, O28)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q28" s="15">
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -2005,14 +2008,14 @@
         <v>24</v>
       </c>
       <c r="P29" s="20">
-        <f>SUMIFS(D:D, F:F, N29, E:E, O29)</f>
+        <f t="shared" si="6"/>
         <v>23.25</v>
       </c>
       <c r="Q29" s="20">
         <v>20</v>
       </c>
       <c r="R29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.25</v>
       </c>
     </row>
@@ -2039,14 +2042,14 @@
         <v>151</v>
       </c>
       <c r="P30" s="15">
-        <f>SUMIFS(D:D, F:F, N30, E:E, O30)</f>
+        <f t="shared" si="6"/>
         <v>4.25</v>
       </c>
       <c r="Q30" s="15">
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.25</v>
       </c>
     </row>
@@ -2073,14 +2076,14 @@
         <v>143</v>
       </c>
       <c r="P31" s="15">
-        <f>SUMIFS(D:D, F:F, N31, E:E, O31)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="Q31" s="15">
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -2095,14 +2098,14 @@
         <v>156</v>
       </c>
       <c r="P32" s="15">
-        <f>SUMIFS(D:D, F:F, N32, E:E, O32)</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q32" s="15">
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -2129,14 +2132,14 @@
         <v>145</v>
       </c>
       <c r="P33" s="15">
-        <f>SUMIFS(D:D, F:F, N33, E:E, O33)</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="Q33" s="15">
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -2163,14 +2166,14 @@
         <v>62</v>
       </c>
       <c r="P34" s="17">
-        <f>SUMIFS(D:D, F:F, N34, E:E, O34)</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="Q34" s="17">
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.75</v>
       </c>
     </row>
@@ -2197,14 +2200,14 @@
         <v>83</v>
       </c>
       <c r="P35" s="17">
-        <f>SUMIFS(D:D, F:F, N35, E:E, O35)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="Q35" s="17">
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.25</v>
       </c>
       <c r="U35" s="2"/>
@@ -2221,14 +2224,14 @@
         <v>110</v>
       </c>
       <c r="P36" s="17">
-        <f>SUMIFS(D:D, F:F, N36, E:E, O36)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="Q36" s="17">
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -2255,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="P37" s="22">
-        <f>SUMIFS(D:D, F:F, N37, E:E, O37)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q37">
@@ -2285,8 +2288,8 @@
         <v>21</v>
       </c>
       <c r="P38" s="22">
-        <f>SUMIFS(D:D, F:F, N38, E:E, O38)</f>
-        <v>3.75</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q38" s="22">
         <v>200</v>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="I166">
         <f>SUM(D167:D181)</f>
-        <v>13.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4196,7 +4199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B177" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -4213,15 +4216,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B178" s="4">
         <v>0.91666666666666663</v>
       </c>
       <c r="C178" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.96875</v>
       </c>
       <c r="D178" s="3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E178" t="s">
         <v>21</v>
@@ -4229,6 +4232,14 @@
       <c r="F178" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Schätzung + Zeiten.xlsx
+++ b/Schätzung + Zeiten.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonp\Desktop\SlightlyObscureEntertainment\Weird Stories - Dark Forest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386C640-85CB-42C4-B09C-83FB13B4BB3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiten nach Tag" sheetId="2" r:id="rId1"/>
     <sheet name="Zeiten nach Aufgabe" sheetId="3" r:id="rId2"/>
     <sheet name="Schätzung" sheetId="1" r:id="rId3"/>
-    <sheet name="Resolutions" sheetId="4" r:id="rId4"/>
+    <sheet name="Marketing" sheetId="5" r:id="rId4"/>
+    <sheet name="Resolutions" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Leon Palluch</author>
   </authors>
   <commentList>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{D6119CF8-8643-49B5-9FED-87E7AB8D2D9D}">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,12 +47,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Leon Palluch</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{62055EF1-4A47-47B8-8EB8-E1C6F70D1A34}">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{979089F9-9B6C-4CE5-9CF9-ED92786F0FA3}">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="229">
   <si>
     <t>Schätzung in h</t>
   </si>
@@ -629,14 +624,161 @@
     <t>Custom Font</t>
   </si>
   <si>
-    <t>15.08.25</t>
+    <t>16. Woche</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Firmenlogo</t>
+  </si>
+  <si>
+    <t>Webseite</t>
+  </si>
+  <si>
+    <t>Werbematerial</t>
+  </si>
+  <si>
+    <t>Steam Anmeldung</t>
+  </si>
+  <si>
+    <t>Steam Page</t>
+  </si>
+  <si>
+    <t>Ende Jänner</t>
+  </si>
+  <si>
+    <t>Anfang Februar</t>
+  </si>
+  <si>
+    <t>Mitte Februar</t>
+  </si>
+  <si>
+    <t>Ende Februar</t>
+  </si>
+  <si>
+    <t>Trailermaterial</t>
+  </si>
+  <si>
+    <t>Trailerplan</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Groben Spielverlauf schreiben</t>
+  </si>
+  <si>
+    <t>Beste Stellen für Trailer raussuchen</t>
+  </si>
+  <si>
+    <t>November/Dezember</t>
+  </si>
+  <si>
+    <t>Gameplay Screen UI</t>
+  </si>
+  <si>
+    <t>Scenes für rausgesuchte Gameplay Snippets</t>
+  </si>
+  <si>
+    <t>Animationen/Effekte für Optionen auswählen und Skilltests</t>
+  </si>
+  <si>
+    <t>Trailersong</t>
+  </si>
+  <si>
+    <t>Fonts für Title Cards</t>
+  </si>
+  <si>
+    <t>Style überlegen</t>
+  </si>
+  <si>
+    <t>Evtl. Grafiken bzw. Animationen</t>
+  </si>
+  <si>
+    <t>Grundgerüst</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>1. Artikel</t>
+  </si>
+  <si>
+    <t>Trailer fertig haben</t>
+  </si>
+  <si>
+    <t>UID Nummer</t>
+  </si>
+  <si>
+    <t>Inhalte für Steam Page</t>
+  </si>
+  <si>
+    <t>Discord Server</t>
+  </si>
+  <si>
+    <t>Inhalte planen</t>
+  </si>
+  <si>
+    <t>Youtube Werbung schalten</t>
+  </si>
+  <si>
+    <t>Anfang März</t>
+  </si>
+  <si>
+    <t>Beginn März?</t>
+  </si>
+  <si>
+    <t>Steam Keys verschicken</t>
+  </si>
+  <si>
+    <t>Liste von Content Creatorn</t>
+  </si>
+  <si>
+    <t>Launch (September/Oktober?)</t>
+  </si>
+  <si>
+    <t>Launch Trailer</t>
+  </si>
+  <si>
+    <t>Trailer abändern lassen</t>
+  </si>
+  <si>
+    <t>Promo Orte finden @inet</t>
+  </si>
+  <si>
+    <t>Ende März</t>
+  </si>
+  <si>
+    <t>Streaming ausprobieren</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Equipment besorgen</t>
+  </si>
+  <si>
+    <t>Streaming Software finden und lernen</t>
+  </si>
+  <si>
+    <t>Monatliche Newsletter</t>
+  </si>
+  <si>
+    <t>"Doomed Herald" Konzept und Struktur ausarbeiten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,6 +937,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,7 +1008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -899,7 +1043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1076,21 +1220,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34919246-5A8F-4FC3-827A-650B040FD870}">
-  <dimension ref="A1:V180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="11.42578125" style="3"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
@@ -1101,7 +1245,7 @@
     <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1148,7 +1292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1158,11 +1302,11 @@
       </c>
       <c r="K2">
         <f>SUM(I:I)</f>
-        <v>176.75</v>
+        <v>182</v>
       </c>
       <c r="M2">
         <f>SUM(P2:P246)</f>
-        <v>176.75</v>
+        <v>182.25</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>54</v>
@@ -1171,21 +1315,21 @@
         <v>54</v>
       </c>
       <c r="P2" s="17">
-        <f t="shared" ref="P2:P4" si="0">SUMIFS(D:D, F:F, N2, E:E, O2)</f>
-        <v>1.75</v>
+        <f t="shared" ref="P2:P5" si="0">SUMIFS(D:D,F:F, N2,E:E, O2)</f>
+        <v>2.25</v>
       </c>
       <c r="Q2" s="15">
         <v>0</v>
       </c>
       <c r="R2">
-        <f>Q2-P2</f>
-        <v>-1.75</v>
+        <f t="shared" ref="R2:R7" si="1">Q2-P2</f>
+        <v>-2.25</v>
       </c>
       <c r="T2" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="B3" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -1215,12 +1359,12 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f>Q3-P3</f>
+        <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="B4" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -1254,11 +1398,11 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f>Q4-P4</f>
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="B5" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1275,50 +1419,50 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <f>SUM(R2:R35) +T2</f>
-        <v>-40.25</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="13">
-        <f t="shared" ref="P5:P6" si="1">SUMIFS(D:D, F:F, N5, E:E, O5)</f>
-        <v>9.5</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>10</v>
+        <f>SUM(R2:R36) +T2</f>
+        <v>-43.25</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>Q5-P5</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="O6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:P39" si="2">SUMIFS(D:D,F:F, N6,E:E, O6)</f>
+        <v>9.5</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>10</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>Q6-P6</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22">
       <c r="B7" s="4">
         <v>0.44444444444444442</v>
       </c>
@@ -1334,21 +1478,25 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P21" si="2">SUMIFS(D:D, F:F, N7, E:E, O7)</f>
-        <v>4.5</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="B8" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1367,357 +1515,353 @@
       <c r="K8" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="Q8" s="15">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ref="R8:R13" si="3">Q8-P8</f>
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="4"/>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
-        <v>8.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
       </c>
       <c r="R9">
+        <f t="shared" ref="R9:R14" si="3">Q9-P9</f>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="3"/>
         <v>-8.75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="11" spans="1:22">
+      <c r="B11" s="4">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="C11" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P11" s="15">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <f t="shared" si="3"/>
         <v>-12.25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <f>30 * 4 * K9</f>
+        <v>330</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P12" s="15">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12">
-        <f>30 * 4 * K9</f>
-        <v>300</v>
-      </c>
-      <c r="N12" s="15" t="s">
+    <row r="13" spans="1:22">
+      <c r="B13" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P13" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q13" s="15">
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="14" spans="1:22">
+      <c r="B14" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P14" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>0.65625</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="15" spans="1:22">
+      <c r="B15" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="C15" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
         <v>35</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.78125</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="20" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P16" s="20">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q16" s="20">
         <v>30</v>
       </c>
-      <c r="R15">
-        <f>Q15-P15</f>
+      <c r="R16">
+        <f>Q16-P16</f>
         <v>21.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" t="s">
+    <row r="17" spans="1:22">
+      <c r="B17" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="18" spans="1:22">
+      <c r="B18" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P18" s="15">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q18" s="15">
         <v>0</v>
       </c>
-      <c r="R17">
-        <f t="shared" ref="R17:R22" si="4">Q17-P17</f>
+      <c r="R18">
+        <f t="shared" ref="R18:R23" si="4">Q18-P18</f>
         <v>-1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="15" t="s">
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O19" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P19" s="15">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q19" s="15">
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <f t="shared" si="4"/>
         <v>-0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="B20" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -1741,21 +1885,21 @@
         <v>35</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="15">
         <v>0</v>
       </c>
       <c r="R20">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="B21" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1772,24 +1916,24 @@
         <v>15</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="15">
         <v>0</v>
       </c>
       <c r="R21">
         <f t="shared" si="4"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1797,21 +1941,21 @@
         <v>18</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" ref="P22" si="5">SUMIFS(D:D, F:F, N22, E:E, O22)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="B23" s="4">
         <v>0.4375</v>
       </c>
@@ -1827,23 +1971,27 @@
       <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="N23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ref="P23:P38" si="6">SUMIFS(D:D, F:F, N23, E:E, O23)</f>
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>30</v>
+      <c r="N23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>-2.75</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="B24" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -1863,39 +2011,35 @@
         <v>9</v>
       </c>
       <c r="O24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
-        <v>4.75</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="Q25">
         <v>10</v>
       </c>
-      <c r="O25" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" ref="R25:R36" si="7">Q25-P25</f>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:22">
       <c r="B26" s="4">
         <v>0.42708333333333331</v>
       </c>
@@ -1915,21 +2059,21 @@
         <v>10</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="6"/>
-        <v>4.25</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="Q26" s="15">
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
-        <v>-4.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R26:R37" si="5">Q26-P26</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="B27" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -1949,21 +2093,21 @@
         <v>10</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
+        <f t="shared" si="2"/>
+        <v>4.25</v>
       </c>
       <c r="Q27" s="15">
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
-        <v>-1.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="B28" s="4">
         <v>0.92013888888888884</v>
       </c>
@@ -1983,43 +2127,43 @@
         <v>10</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.75</v>
       </c>
       <c r="Q28" s="15">
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="20">
-        <f t="shared" si="6"/>
-        <v>23.25</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>20</v>
+      <c r="O29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="7"/>
-        <v>-3.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="B30" s="4">
         <v>0.40625</v>
       </c>
@@ -2035,25 +2179,25 @@
       <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P30" s="15">
-        <f t="shared" si="6"/>
-        <v>4.25</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>0</v>
+      <c r="O30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="20">
+        <f t="shared" si="2"/>
+        <v>23.25</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>20</v>
       </c>
       <c r="R30">
-        <f t="shared" si="7"/>
-        <v>-4.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="B31" s="4">
         <v>0.90625</v>
       </c>
@@ -2073,21 +2217,21 @@
         <v>10</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>4.25</v>
       </c>
       <c r="Q31" s="15">
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="7"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2095,21 +2239,21 @@
         <v>10</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="Q32" s="15">
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="7"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="B33" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -2126,24 +2270,24 @@
         <v>15</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Q33" s="15">
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="B34" s="4">
         <v>0.5625</v>
       </c>
@@ -2159,25 +2303,25 @@
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q34" s="17">
+      <c r="N34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q34" s="15">
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="7"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="B35" s="4">
         <v>0.71875</v>
       </c>
@@ -2197,23 +2341,23 @@
         <v>109</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="P35" s="17">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="Q35" s="17">
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="7"/>
-        <v>-0.25</v>
+        <f t="shared" si="5"/>
+        <v>-0.75</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2221,21 +2365,21 @@
         <v>109</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="Q36" s="17">
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="7"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="B37" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -2251,21 +2395,25 @@
       <c r="F37" t="s">
         <v>109</v>
       </c>
-      <c r="N37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="22">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Q37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="B38" s="4">
         <v>0.49652777777777773</v>
       </c>
@@ -2285,17 +2433,17 @@
         <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P38" s="22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q38" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="B39" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -2311,8 +2459,21 @@
       <c r="F39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2322,7 +2483,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="B41" s="4">
         <v>0.4375</v>
       </c>
@@ -2343,7 +2504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="B42" s="4">
         <v>0.47916666666666669</v>
       </c>
@@ -2360,7 +2521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="B43" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -2377,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="B44" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2394,12 +2555,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="B46" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -2416,7 +2577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="B47" s="4">
         <v>0.5</v>
       </c>
@@ -2433,12 +2594,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="B49" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2455,7 +2616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="B50" s="4">
         <v>0.625</v>
       </c>
@@ -2472,7 +2633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="B51" s="4">
         <v>0.99305555555555547</v>
       </c>
@@ -2489,12 +2650,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="B53" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -2511,7 +2672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="B54" s="4">
         <v>0.63888888888888895</v>
       </c>
@@ -2528,7 +2689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -2536,7 +2697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="B56" s="4">
         <v>0.38541666666666669</v>
       </c>
@@ -2557,7 +2718,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="B57" s="4">
         <v>0.65625</v>
       </c>
@@ -2574,12 +2735,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="B59" s="4">
         <v>0.75</v>
       </c>
@@ -2596,12 +2757,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="B61" s="4">
         <v>0.59375</v>
       </c>
@@ -2618,7 +2779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="B62" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -2635,12 +2796,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="B64" s="4">
         <v>0.71875</v>
       </c>
@@ -2657,7 +2818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2665,7 +2826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="B66" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -2686,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="B67" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -2703,7 +2864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -2712,7 +2873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="B69" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -2733,7 +2894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="B70" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2750,12 +2911,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="B72" s="4">
         <v>0.41319444444444442</v>
       </c>
@@ -2772,7 +2933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="B73" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -2789,7 +2950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="B74" s="4">
         <v>0.76388888888888884</v>
       </c>
@@ -2806,12 +2967,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="B76" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2828,7 +2989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -2837,7 +2998,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="B78" s="4">
         <v>0.56597222222222221</v>
       </c>
@@ -2858,12 +3019,12 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="B80" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -2880,7 +3041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="B81" s="4">
         <v>0.54861111111111105</v>
       </c>
@@ -2897,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="B82" s="4">
         <v>0.63888888888888895</v>
       </c>
@@ -2914,12 +3075,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="B84" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -2936,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="B85" s="4">
         <v>0.87152777777777779</v>
       </c>
@@ -2953,12 +3114,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="B87" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -2975,7 +3136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="B88" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -2992,7 +3153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="B89" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -3009,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="B90" s="4">
         <v>0.76388888888888884</v>
       </c>
@@ -3026,12 +3187,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="B92" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3048,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="B93" s="4">
         <v>0.875</v>
       </c>
@@ -3065,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="B94" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3082,7 +3243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -3090,7 +3251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="B96" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3111,7 +3272,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="B97" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -3128,7 +3289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="B98" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -3145,7 +3306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="B99" s="4">
         <v>0.5</v>
       </c>
@@ -3162,7 +3323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="B100" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -3179,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="B101" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -3196,12 +3357,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="B103" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -3218,12 +3379,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="B105" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -3240,7 +3401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="B106" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3257,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="B107" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3274,12 +3435,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="B109" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -3296,7 +3457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="B110" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -3313,7 +3474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -3321,7 +3482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="B112" s="4">
         <v>0.63194444444444442</v>
       </c>
@@ -3342,13 +3503,13 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>142</v>
       </c>
       <c r="B113" s="8"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="B114" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -3365,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="B115" s="4">
         <v>0.64583333333333337</v>
       </c>
@@ -3382,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="B116" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3399,12 +3560,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="B118" s="4">
         <v>0.9375</v>
       </c>
@@ -3421,12 +3582,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="B120" s="4">
         <v>0.53125</v>
       </c>
@@ -3443,13 +3604,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>147</v>
       </c>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="B122" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3466,7 +3627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="B123" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -3483,7 +3644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -3495,7 +3656,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="B125" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -3512,7 +3673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="B126" s="4">
         <v>0.87847222222222221</v>
       </c>
@@ -3529,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="B127" s="4">
         <v>0.94791666666666663</v>
       </c>
@@ -3546,12 +3707,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="B129" s="4">
         <v>0.46875</v>
       </c>
@@ -3568,12 +3729,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="B131" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -3590,7 +3751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -3602,7 +3763,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="B133" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -3619,7 +3780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="B134" s="4">
         <v>0.875</v>
       </c>
@@ -3636,12 +3797,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="B136" s="4">
         <v>0.4375</v>
       </c>
@@ -3658,7 +3819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="B137" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3675,7 +3836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="B138" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -3692,12 +3853,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="B140" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3714,7 +3875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -3726,7 +3887,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="B142" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3743,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="B143" s="4">
         <v>0.40625</v>
       </c>
@@ -3760,12 +3921,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="B145" s="4">
         <v>0.40625</v>
       </c>
@@ -3782,7 +3943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="B146" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -3799,7 +3960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="B147" s="4">
         <v>0.72569444444444453</v>
       </c>
@@ -3816,7 +3977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="B148" s="4">
         <v>0.85763888888888884</v>
       </c>
@@ -3833,12 +3994,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="B150" s="4">
         <v>0.4513888888888889</v>
       </c>
@@ -3855,7 +4016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -3867,7 +4028,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="B152" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -3884,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="B153" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3901,7 +4062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="B154" s="8">
         <v>0.72222222222222221</v>
       </c>
@@ -3918,13 +4079,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>166</v>
       </c>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="B156" s="4">
         <v>0.42708333333333331</v>
       </c>
@@ -3941,7 +4102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -3953,7 +4114,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="B158" s="4">
         <v>0.375</v>
       </c>
@@ -3970,7 +4131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="B159" s="8">
         <v>0.52430555555555558</v>
       </c>
@@ -3987,12 +4148,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="B161" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -4009,12 +4170,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="B163" s="4">
         <v>0.40625</v>
       </c>
@@ -4031,12 +4192,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="B165" s="8">
         <v>0.95833333333333337</v>
       </c>
@@ -4053,7 +4214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -4061,11 +4222,11 @@
         <v>172</v>
       </c>
       <c r="I166">
-        <f>SUM(D167:D181)</f>
+        <f>SUM(D167:D178)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="B167" s="4">
         <v>0.62152777777777779</v>
       </c>
@@ -4082,12 +4243,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="B169" s="4">
         <v>0.41319444444444442</v>
       </c>
@@ -4104,7 +4265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="B170" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -4121,7 +4282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="B171" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -4138,12 +4299,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="B173" s="4">
         <v>0.46875</v>
       </c>
@@ -4160,12 +4321,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="B175" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -4182,7 +4343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="B176" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -4199,7 +4360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="B177" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -4216,7 +4377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="B178" s="4">
         <v>0.91666666666666663</v>
       </c>
@@ -4233,13 +4394,173 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:9">
+      <c r="A179" s="23">
+        <v>45888</v>
+      </c>
+      <c r="H179" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="4"/>
+      <c r="I179">
+        <f>SUM(D180:D190)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="B180" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="B181" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C181" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="23">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="B183" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="23">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="B185" s="4">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C185" s="4">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E185" t="s">
+        <v>178</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="23">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="B187" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C187" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E187" t="s">
+        <v>40</v>
+      </c>
+      <c r="F187" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="B188" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E188" t="s">
+        <v>54</v>
+      </c>
+      <c r="F188" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="B189" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C189" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>178</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="23">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="B191" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C191" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E191" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4249,16 +4570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86113E42-0F82-42B0-88B8-2BC1AE2823B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -4272,14 +4593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -4295,7 +4616,7 @@
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -4308,10 +4629,10 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="25"/>
       <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
@@ -4328,7 +4649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4351,7 +4672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4396,7 +4717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
@@ -4446,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4460,7 +4781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -4497,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4511,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -4527,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -4535,7 +4856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4543,7 +4864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
@@ -4558,7 +4879,7 @@
         <v>29.333333333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -4566,7 +4887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -4577,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -4589,7 +4910,7 @@
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4597,7 +4918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -4605,12 +4926,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -4618,7 +4939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -4626,12 +4947,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -4639,7 +4960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -4647,7 +4968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4655,12 +4976,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -4668,12 +4989,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -4681,7 +5002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="13" t="s">
         <v>37</v>
       </c>
@@ -4690,7 +5011,7 @@
       </c>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -4698,12 +5019,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34" t="s">
         <v>27</v>
       </c>
@@ -4711,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -4719,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -4727,7 +5048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37" s="13" t="s">
         <v>34</v>
       </c>
@@ -4749,16 +5070,282 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C8F67F-A0A3-4ABD-B38A-116AAA2AC0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>90</v>
       </c>
@@ -4778,7 +5365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4806,7 +5393,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>640</v>
       </c>
@@ -4832,7 +5419,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="I4" s="10" t="s">
         <v>98</v>
       </c>

--- a/Schätzung + Zeiten.xlsx
+++ b/Schätzung + Zeiten.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonp\Desktop\SlightlyObscureEntertainment\Weird Stories - Dark Forest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C4721-7646-4590-B97A-56F0F73EC2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiten nach Tag" sheetId="2" r:id="rId1"/>
-    <sheet name="Zeiten nach Aufgabe" sheetId="3" r:id="rId2"/>
-    <sheet name="Schätzung" sheetId="1" r:id="rId3"/>
-    <sheet name="Marketing" sheetId="5" r:id="rId4"/>
-    <sheet name="Resolutions" sheetId="4" r:id="rId5"/>
+    <sheet name="Schätzung" sheetId="1" r:id="rId2"/>
+    <sheet name="Marketing" sheetId="5" r:id="rId3"/>
+    <sheet name="Resolutions" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leon Palluch</author>
   </authors>
   <commentList>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,12 +52,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leon Palluch</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="233">
   <si>
     <t>Schätzung in h</t>
   </si>
@@ -252,9 +257,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>2 Tage nicht einberechnet weil vor Projektbeginn</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -772,13 +774,28 @@
   </si>
   <si>
     <t>"Doomed Herald" Konzept und Struktur ausarbeiten</t>
+  </si>
+  <si>
+    <t>25.08.25</t>
+  </si>
+  <si>
+    <t>17. Woche</t>
+  </si>
+  <si>
+    <t>26.08.25</t>
+  </si>
+  <si>
+    <t>27.08.25</t>
+  </si>
+  <si>
+    <t>Use Custom Fonts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,21 +1237,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M181" sqref="M181"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11.42578125" style="3"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
@@ -1245,54 +1262,54 @@
     <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1302,11 +1319,11 @@
       </c>
       <c r="K2">
         <f>SUM(I:I)</f>
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M2">
         <f>SUM(P2:P246)</f>
-        <v>182.25</v>
+        <v>192</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>54</v>
@@ -1329,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="17">
         <f t="shared" si="0"/>
@@ -1364,7 +1381,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -1375,20 +1392,20 @@
         <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="14"/>
       <c r="N4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="0"/>
@@ -1402,7 +1419,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1419,8 +1436,8 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <f>SUM(R2:R36) +T2</f>
-        <v>-43.25</v>
+        <f>SUM(R2:R37) +T2</f>
+        <v>-53</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>54</v>
@@ -1440,9 +1457,9 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>26</v>
@@ -1462,7 +1479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>0.44444444444444442</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P7" s="17">
         <f t="shared" si="2"/>
@@ -1496,7 +1513,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1507,13 +1524,13 @@
         <v>1.75</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
@@ -1529,19 +1546,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4"/>
       <c r="K9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
@@ -1555,7 +1572,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>0.44444444444444442</v>
       </c>
@@ -1566,7 +1583,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1575,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="2"/>
@@ -1589,7 +1606,7 @@
         <v>-8.75</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>0.50694444444444442</v>
       </c>
@@ -1606,13 +1623,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="2"/>
@@ -1626,19 +1643,19 @@
         <v>-12.25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1">
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12">
         <f>30 * 4 * K9</f>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="2"/>
@@ -1652,7 +1669,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -1663,16 +1680,16 @@
         <v>3.5</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="2"/>
@@ -1686,7 +1703,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>0.65625</v>
       </c>
@@ -1706,7 +1723,7 @@
         <v>15</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="2"/>
@@ -1720,7 +1737,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>0.6875</v>
       </c>
@@ -1731,7 +1748,7 @@
         <v>2.25</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1740,7 +1757,7 @@
         <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
@@ -1750,9 +1767,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16" s="20" t="s">
         <v>35</v>
@@ -1772,7 +1789,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>0.4375</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>2.25</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1802,7 +1819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -1813,7 +1830,7 @@
         <v>0.75</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1822,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="15">
         <f t="shared" si="2"/>
@@ -1836,18 +1853,18 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" si="2"/>
@@ -1861,7 +1878,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -1872,7 +1889,7 @@
         <v>1.25</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1885,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="2"/>
@@ -1899,7 +1916,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>2.25</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1919,7 +1936,7 @@
         <v>35</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="2"/>
@@ -1933,29 +1950,29 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>0.4375</v>
       </c>
@@ -1975,23 +1992,23 @@
         <v>18</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="P23" s="15">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
+        <f>SUMIFS(D:D,F:F, N23,E:E, O23)</f>
+        <v>0.25</v>
       </c>
       <c r="Q23" s="15">
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
-        <v>-2.75</v>
+        <f>Q23-P23</f>
+        <v>-0.25</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -2007,39 +2024,43 @@
       <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="N24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="N24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P24" s="15">
+        <f>SUMIFS(D:D,F:F, N24,E:E, O24)</f>
+        <v>11.25</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>Q24-P24</f>
+        <v>-11.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
         <v>9</v>
       </c>
       <c r="O25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
+        <f>SUMIFS(D:D,F:F, N25,E:E, O25)</f>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>0.42708333333333331</v>
       </c>
@@ -2055,25 +2076,21 @@
       <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <f>SUMIFS(D:D,F:F, N26,E:E, O26)</f>
+        <v>4.75</v>
+      </c>
+      <c r="Q26">
         <v>10</v>
       </c>
-      <c r="O26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" ref="R26:R37" si="5">Q26-P26</f>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2084,7 +2101,7 @@
         <v>2.25</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -2093,201 +2110,201 @@
         <v>10</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
+        <f>SUMIFS(D:D,F:F, N27,E:E, O27)</f>
+        <v>0.75</v>
       </c>
       <c r="Q27" s="15">
         <v>0</v>
       </c>
       <c r="R27">
+        <f t="shared" ref="R27:R38" si="5">Q27-P27</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="15">
+        <f>SUMIFS(D:D,F:F, N28,E:E, O28)</f>
+        <v>4.25</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="5"/>
         <v>-4.25</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
-      <c r="B28" s="4">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="D28" s="3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="15">
+        <f>SUMIFS(D:D,F:F, N29,E:E, O29)</f>
         <v>1.75</v>
       </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P28" s="15">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q28" s="15">
+      <c r="Q29" s="15">
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <f t="shared" si="5"/>
         <v>-1.75</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" s="15" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="2"/>
+      <c r="O30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="15">
+        <f>SUMIFS(D:D,F:F, N30,E:E, O30)</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q30" s="15">
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
-      <c r="B30" s="4">
-        <v>0.40625</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3">
         <v>2.25</v>
       </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="O31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="20">
-        <f t="shared" si="2"/>
+      <c r="P31" s="20">
+        <f>SUMIFS(D:D,F:F, N31,E:E, O31)</f>
         <v>23.25</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q31" s="20">
         <v>20</v>
       </c>
-      <c r="R30">
+      <c r="R31">
         <f t="shared" si="5"/>
         <v>-3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
-      <c r="B31" s="4">
-        <v>0.90625</v>
-      </c>
-      <c r="C31" s="8" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N31" s="15" t="s">
+      <c r="N32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O31" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P31" s="15">
-        <f t="shared" si="2"/>
+      <c r="O32" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="15">
+        <f>SUMIFS(D:D,F:F, N32,E:E, O32)</f>
         <v>4.25</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q32" s="15">
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <f t="shared" si="5"/>
         <v>-4.25</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="15" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="2"/>
+      <c r="O33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="15">
+        <f>SUMIFS(D:D,F:F, N33,E:E, O33)</f>
         <v>0.5</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q33" s="15">
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
-      <c r="B33" s="4">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>0.5625</v>
       </c>
@@ -2298,19 +2315,19 @@
         <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(D:D,F:F, N34,E:E, O34)</f>
         <v>1.5</v>
       </c>
       <c r="Q34" s="15">
@@ -2321,7 +2338,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>0.71875</v>
       </c>
@@ -2332,54 +2349,54 @@
         <v>1.5</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" s="17">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q35" s="17">
+      <c r="N35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="15">
+        <f>SUMIFS(D:D,F:F, N35,E:E, O35)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q35" s="15">
         <v>0</v>
       </c>
       <c r="R35">
         <f t="shared" si="5"/>
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>SUMIFS(D:D,F:F, N36,E:E, O36)</f>
+        <v>0.75</v>
       </c>
       <c r="Q36" s="17">
         <v>0</v>
       </c>
       <c r="R36">
         <f t="shared" si="5"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -2390,30 +2407,30 @@
         <v>0.25</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="P37" s="17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>SUMIFS(D:D,F:F, N37,E:E, O37)</f>
+        <v>0.25</v>
       </c>
       <c r="Q37" s="17">
         <v>0</v>
       </c>
       <c r="R37">
         <f t="shared" si="5"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>0.49652777777777773</v>
       </c>
@@ -2424,26 +2441,30 @@
         <v>0.5</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="N38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="22">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="N38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="17">
+        <f>SUMIFS(D:D,F:F, N38,E:E, O38)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -2454,7 +2475,7 @@
         <v>0.25</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2463,27 +2484,40 @@
         <v>19</v>
       </c>
       <c r="O39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="22">
+        <f>SUMIFS(D:D,F:F, N39,E:E, O39)</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="22">
-        <f t="shared" si="2"/>
+      <c r="P40" s="22">
+        <f>SUMIFS(D:D,F:F, N40,E:E, O40)</f>
         <v>6</v>
       </c>
-      <c r="Q39" s="22">
+      <c r="Q40" s="22">
         <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" t="s">
-        <v>86</v>
       </c>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>0.4375</v>
       </c>
@@ -2494,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
@@ -2504,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>0.47916666666666669</v>
       </c>
@@ -2515,13 +2549,13 @@
         <v>1.5</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -2532,13 +2566,13 @@
         <v>1.5</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2549,18 +2583,18 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -2571,13 +2605,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
         <v>99</v>
       </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>0.5</v>
       </c>
@@ -2594,12 +2628,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2616,7 +2650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>0.625</v>
       </c>
@@ -2633,7 +2667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>0.99305555555555547</v>
       </c>
@@ -2650,12 +2684,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -2672,7 +2706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>0.63888888888888895</v>
       </c>
@@ -2689,15 +2723,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>0.38541666666666669</v>
       </c>
@@ -2718,7 +2752,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>0.65625</v>
       </c>
@@ -2735,12 +2769,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>0.75</v>
       </c>
@@ -2757,12 +2791,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>0.59375</v>
       </c>
@@ -2779,7 +2813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -2796,12 +2830,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>0.71875</v>
       </c>
@@ -2818,15 +2852,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -2837,17 +2871,17 @@
         <v>0.25</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I66">
         <f>SUM(D66:D67)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -2864,16 +2898,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="4"/>
       <c r="H68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -2894,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2911,12 +2945,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>0.41319444444444442</v>
       </c>
@@ -2933,7 +2967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -2950,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>0.76388888888888884</v>
       </c>
@@ -2967,12 +3001,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2983,22 +3017,22 @@
         <v>0.75</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="4"/>
       <c r="H77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>0.56597222222222221</v>
       </c>
@@ -3019,12 +3053,12 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -3041,7 +3075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>0.54861111111111105</v>
       </c>
@@ -3058,7 +3092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>0.63888888888888895</v>
       </c>
@@ -3069,18 +3103,18 @@
         <v>0.75</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -3091,13 +3125,13 @@
         <v>1.25</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>0.87152777777777779</v>
       </c>
@@ -3108,18 +3142,18 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -3136,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -3153,7 +3187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -3170,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>0.76388888888888884</v>
       </c>
@@ -3187,12 +3221,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3209,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>0.875</v>
       </c>
@@ -3226,7 +3260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3237,21 +3271,21 @@
         <v>1.5</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3262,7 +3296,7 @@
         <v>0.5</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3272,7 +3306,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -3283,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -3300,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <v>0.5</v>
       </c>
@@ -3317,13 +3351,13 @@
         <v>0.75</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -3334,13 +3368,13 @@
         <v>0.5</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -3357,12 +3391,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -3379,12 +3413,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -3401,7 +3435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3418,7 +3452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3435,12 +3469,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -3451,13 +3485,13 @@
         <v>0.25</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F109" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -3474,15 +3508,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
         <v>0.63194444444444442</v>
       </c>
@@ -3493,23 +3527,23 @@
         <v>0.25</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I112">
         <f>SUM(D112:D123)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="8"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -3526,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <v>0.64583333333333337</v>
       </c>
@@ -3537,13 +3571,13 @@
         <v>0.5</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3560,34 +3594,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <v>0.9375</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D118" s="3">
         <v>1.5</v>
       </c>
       <c r="E118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="4">
         <v>0.53125</v>
       </c>
@@ -3604,13 +3638,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3627,7 +3661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="4">
         <v>0.60416666666666663</v>
       </c>
@@ -3644,19 +3678,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I124">
         <f>SUM(D125:D131)</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -3673,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="4">
         <v>0.87847222222222221</v>
       </c>
@@ -3690,7 +3724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="4">
         <v>0.94791666666666663</v>
       </c>
@@ -3707,12 +3741,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="4">
         <v>0.46875</v>
       </c>
@@ -3723,18 +3757,18 @@
         <v>0.75</v>
       </c>
       <c r="E129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -3745,25 +3779,25 @@
         <v>1.5</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I132">
         <f>SUM(D133:D140)</f>
         <v>9.75</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
         <v>0.54166666666666663</v>
       </c>
@@ -3774,13 +3808,13 @@
         <v>0.25</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
         <v>0.875</v>
       </c>
@@ -3791,18 +3825,18 @@
         <v>1.75</v>
       </c>
       <c r="E134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
         <v>0.4375</v>
       </c>
@@ -3813,13 +3847,13 @@
         <v>1.5</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3830,13 +3864,13 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -3847,18 +3881,18 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3869,25 +3903,25 @@
         <v>2.25</v>
       </c>
       <c r="E140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F140" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>158</v>
+      </c>
+      <c r="H141" t="s">
         <v>159</v>
-      </c>
-      <c r="H141" t="s">
-        <v>160</v>
       </c>
       <c r="I141">
         <f>SUM(D142:D150)</f>
         <v>7.25</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3904,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="4">
         <v>0.40625</v>
       </c>
@@ -3915,18 +3949,18 @@
         <v>1.75</v>
       </c>
       <c r="E143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F143" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" s="4">
         <v>0.40625</v>
       </c>
@@ -3937,13 +3971,13 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F145" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -3960,7 +3994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" s="4">
         <v>0.72569444444444453</v>
       </c>
@@ -3977,7 +4011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" s="4">
         <v>0.85763888888888884</v>
       </c>
@@ -3994,12 +4028,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" s="4">
         <v>0.4513888888888889</v>
       </c>
@@ -4016,19 +4050,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I151">
         <f>SUM(D152:D156)</f>
         <v>3.75</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -4045,7 +4079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -4056,13 +4090,13 @@
         <v>0.5</v>
       </c>
       <c r="E153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F153" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="8">
         <v>0.72222222222222221</v>
       </c>
@@ -4073,19 +4107,19 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F154" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="4">
         <v>0.42708333333333331</v>
       </c>
@@ -4102,19 +4136,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I157">
         <f>SUM(D158:D165)</f>
         <v>10.75</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="4">
         <v>0.375</v>
       </c>
@@ -4131,7 +4165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="8">
         <v>0.52430555555555558</v>
       </c>
@@ -4148,12 +4182,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -4170,12 +4204,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" s="4">
         <v>0.40625</v>
       </c>
@@ -4192,12 +4226,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" s="8">
         <v>0.95833333333333337</v>
       </c>
@@ -4214,19 +4248,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="H166" t="s">
         <v>171</v>
-      </c>
-      <c r="H166" t="s">
-        <v>172</v>
       </c>
       <c r="I166">
         <f>SUM(D167:D178)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="4">
         <v>0.62152777777777779</v>
       </c>
@@ -4243,12 +4277,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" s="4">
         <v>0.41319444444444442</v>
       </c>
@@ -4265,7 +4299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -4282,12 +4316,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="4">
         <v>0.89583333333333337</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D171" s="3">
         <v>2.5</v>
@@ -4299,12 +4333,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="4">
         <v>0.46875</v>
       </c>
@@ -4315,18 +4349,18 @@
         <v>0.5</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F173" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -4343,7 +4377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B176" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -4354,13 +4388,13 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B177" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -4377,7 +4411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B178" s="4">
         <v>0.91666666666666663</v>
       </c>
@@ -4394,19 +4428,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>45888</v>
       </c>
       <c r="H179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I179">
-        <f>SUM(D180:D190)</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <f>SUM(D180:D191)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B180" s="4">
         <v>0.4513888888888889</v>
       </c>
@@ -4423,7 +4457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B181" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4440,12 +4474,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>45889</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B183" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -4462,12 +4496,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>45890</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B185" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -4478,18 +4512,18 @@
         <v>1.25</v>
       </c>
       <c r="E185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F185" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>45891</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B187" s="4">
         <v>0.43402777777777773</v>
       </c>
@@ -4506,7 +4540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="4">
         <v>0.46527777777777773</v>
       </c>
@@ -4523,7 +4557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B189" s="4">
         <v>0.47569444444444442</v>
       </c>
@@ -4534,18 +4568,18 @@
         <v>0.5</v>
       </c>
       <c r="E189" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F189" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>45892</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B191" s="4">
         <v>0.3923611111111111</v>
       </c>
@@ -4560,6 +4594,130 @@
       </c>
       <c r="F191" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H192" t="s">
+        <v>229</v>
+      </c>
+      <c r="I192">
+        <f>SUM(D193:D204)</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="C193" s="4">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>177</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D195" s="3">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>177</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C197" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>177</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="4">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>177</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="4">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>232</v>
+      </c>
+      <c r="F199" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C200" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E200" t="s">
+        <v>232</v>
+      </c>
+      <c r="F200" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4570,37 +4728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -4616,12 +4751,12 @@
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4649,7 +4784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4672,7 +4807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +4852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
@@ -4767,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4781,7 +4916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4798,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -4818,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4832,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -4848,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -4856,7 +4991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4864,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
@@ -4879,7 +5014,7 @@
         <v>29.333333333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -4887,7 +5022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -4898,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -4910,7 +5045,7 @@
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4918,7 +5053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -4926,12 +5061,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -4939,7 +5074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -4947,12 +5082,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -4960,7 +5095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -4968,7 +5103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4976,12 +5111,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -4989,12 +5124,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -5002,7 +5137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>37</v>
       </c>
@@ -5011,20 +5146,20 @@
       </c>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>27</v>
       </c>
@@ -5032,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -5040,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -5048,7 +5183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>34</v>
       </c>
@@ -5069,264 +5204,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>211</v>
       </c>
-      <c r="B24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>213</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>227</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>216</v>
-      </c>
-      <c r="B35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="C36" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5335,39 +5470,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1280</v>
@@ -5386,14 +5521,14 @@
         <v>600</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <f>16/9</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>640</v>
       </c>
@@ -5412,16 +5547,16 @@
         <v>400</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J3">
         <f>16/10</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <f>4/3</f>
